--- a/metrics/MAPE/average & upto/Microalbuminuria.xlsx
+++ b/metrics/MAPE/average & upto/Microalbuminuria.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3387083211439.579</v>
+        <v>3335618369900.454</v>
       </c>
       <c r="C3" t="n">
-        <v>3364334726058.732</v>
+        <v>3426148230517.259</v>
       </c>
       <c r="D3" t="n">
-        <v>3258002334800.711</v>
+        <v>3910256307099.563</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4142812482421.545</v>
+        <v>4251408067343.735</v>
       </c>
       <c r="C4" t="n">
-        <v>4137381518767.528</v>
+        <v>4295279874896.903</v>
       </c>
       <c r="D4" t="n">
-        <v>4221877325512.965</v>
+        <v>4281995367358.839</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>154469318525493.5</v>
+        <v>123745063135682.6</v>
       </c>
       <c r="C5" t="n">
-        <v>158163105489099.8</v>
+        <v>228829631752086.5</v>
       </c>
       <c r="D5" t="n">
-        <v>144080705264312.6</v>
+        <v>110218681696921.2</v>
       </c>
     </row>
   </sheetData>
